--- a/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <x:si>
     <x:t>김종국</x:t>
   </x:si>
@@ -151,6 +151,24 @@
   </x:si>
   <x:si>
     <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>유재석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4시20분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-25T16:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>처리</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -500,7 +518,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:G12"/>
+  <x:dimension ref="A1:G13"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="G15" activeCellId="0" sqref="A12:G15"/>
@@ -769,6 +787,29 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
+    <x:row r="13">
+      <x:c r="A13" t="s" s="0">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B13" t="s" s="0">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C13" t="s" s="0">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D13" t="s" s="0">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E13" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F13" t="s" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G13" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <x:si>
     <x:t>김종국</x:t>
   </x:si>
@@ -169,6 +169,21 @@
   </x:si>
   <x:si>
     <x:t>처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유재석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4시25분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-27T16:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
   </x:si>
 </x:sst>
 </file>
@@ -518,7 +533,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:G13"/>
+  <x:dimension ref="A1:G14"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="G15" activeCellId="0" sqref="A12:G15"/>
@@ -810,6 +825,29 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
+    <x:row r="14">
+      <x:c r="A14" t="s" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B14" t="s" s="0">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C14" t="s" s="0">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D14" t="s" s="0">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E14" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F14" t="s" s="0">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G14" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <x:si>
     <x:t>김종국</x:t>
   </x:si>
@@ -181,6 +181,51 @@
   </x:si>
   <x:si>
     <x:t>2025-05-27T16:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>유재석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안녕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-28T19:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>유재석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7시8분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-28T19:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>유재석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안녕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-28T19:54</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -533,7 +578,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:G14"/>
+  <x:dimension ref="A1:G17"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="G15" activeCellId="0" sqref="A12:G15"/>
@@ -848,6 +893,75 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="15">
+      <x:c r="A15" t="s" s="0">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B15" t="s" s="0">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C15" t="s" s="0">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D15" t="s" s="0">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E15" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F15" t="s" s="0">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G15" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" t="s" s="0">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B16" t="s" s="0">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C16" t="s" s="0">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D16" t="s" s="0">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E16" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F16" t="s" s="0">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G16" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" t="s" s="0">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B17" t="s" s="0">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C17" t="s" s="0">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D17" t="s" s="0">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E17" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F17" t="s" s="0">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G17" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <x:si>
     <x:t>김종국</x:t>
   </x:si>
@@ -226,6 +226,21 @@
   </x:si>
   <x:si>
     <x:t>2025-05-28T19:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>유재석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-29T23:02</x:t>
   </x:si>
   <x:si>
     <x:t/>
@@ -578,7 +593,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:G17"/>
+  <x:dimension ref="A1:G18"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="G15" activeCellId="0" sqref="A12:G15"/>
@@ -962,6 +977,29 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="18">
+      <x:c r="A18" t="s" s="0">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B18" t="s" s="0">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C18" t="s" s="0">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D18" t="s" s="0">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E18" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F18" t="s" s="0">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G18" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <x:si>
     <x:t>김종국</x:t>
   </x:si>
@@ -244,6 +244,63 @@
   </x:si>
   <x:si>
     <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>이승민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-30T21:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-30T21:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-30T21:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>김종국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-30T21:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -593,7 +650,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:G18"/>
+  <x:dimension ref="A1:G22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="G15" activeCellId="0" sqref="A12:G15"/>
@@ -1000,6 +1057,98 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="19">
+      <x:c r="A19" t="s" s="0">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B19" t="s" s="0">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C19" t="s" s="0">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D19" t="s" s="0">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E19" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F19" t="s" s="0">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G19" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" t="s" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B20" t="s" s="0">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C20" t="s" s="0">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D20" t="s" s="0">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E20" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F20" t="s" s="0">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G20" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" t="s" s="0">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B21" t="s" s="0">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C21" t="s" s="0">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D21" t="s" s="0">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E21" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F21" t="s" s="0">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G21" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" t="s" s="0">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B22" t="s" s="0">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C22" t="s" s="0">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D22" t="s" s="0">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E22" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F22" t="s" s="0">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G22" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
+++ b/LectureRoomReservation_Server/src/main/java/Model/Inquiry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7845" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="12645" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,288 +19,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-30T21:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-28T19:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-28T19:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-30T21:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-30T21:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-30T21:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-28T19:03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-29T23:02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-31T00:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍길동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이승민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유재석</x:t>
+  </x:si>
   <x:si>
     <x:t>김종국</x:t>
   </x:si>
   <x:si>
-    <x:t>이승민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유재석</x:t>
+    <x:t>id3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-15T22:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
   </x:si>
   <x:si>
     <x:t>id4</x:t>
   </x:si>
   <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
     <x:t>이광수</x:t>
   </x:si>
   <x:si>
+    <x:t>id5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>답변</x:t>
+  </x:si>
+  <x:si>
+    <x:t>송지효</x:t>
+  </x:si>
+  <x:si>
     <x:t>중요도</x:t>
   </x:si>
   <x:si>
-    <x:t>송지효</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홍길동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>답변</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
+    <x:t>안녕</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-25T16:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-01-23T20:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-01-22T00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-05T20:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-01-24T21:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-27T16:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-15T18:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-01-22T20:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-25T15:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-14T22:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023-01-22T10:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-05-16T00:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모니터가 이상해요</x:t>
   </x:si>
   <x:si>
     <x:t>의자가 이상해요</x:t>
   </x:si>
   <x:si>
-    <x:t>모니터가 이상해요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-15T22:44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-01-22T00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-14T22:57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-01-23T20:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-05T20:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-01-24T21:56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-16T00:43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-01-22T10:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023-01-22T20:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-15T18:59</x:t>
-  </x:si>
-  <x:si>
     <x:t>책상이 이상해요</x:t>
   </x:si>
   <x:si>
+    <x:t>너무 더러워요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4시20분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3시24분</x:t>
+  </x:si>
+  <x:si>
     <x:t>이상해요</x:t>
   </x:si>
   <x:si>
+    <x:t>4시25분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10시 44분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7시8분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6시58분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test5</x:t>
+  </x:si>
+  <x:si>
     <x:t>5월16일</x:t>
   </x:si>
   <x:si>
     <x:t>배고파요</x:t>
   </x:si>
   <x:si>
-    <x:t>6시58분</x:t>
-  </x:si>
-  <x:si>
     <x:t>처리완료</x:t>
   </x:si>
   <x:si>
     <x:t>확인여부</x:t>
   </x:si>
   <x:si>
-    <x:t>문의사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10시 44분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>너무 더러워요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유재석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3시24분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-25T15:24</x:t>
+    <x:t>ch</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>유재석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4시20분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-25T16:20</x:t>
-  </x:si>
-  <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유재석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4시25분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-27T16:25</x:t>
-  </x:si>
-  <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>유재석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안녕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-28T19:03</x:t>
-  </x:si>
-  <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>유재석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7시8분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-28T19:08</x:t>
-  </x:si>
-  <x:si>
     <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>유재석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안녕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-28T19:54</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>유재석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-29T23:02</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>이승민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-30T21:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-30T21:18</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-30T21:22</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>김종국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025-05-30T21:48</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>test</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -650,10 +572,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:G22"/>
+  <x:dimension ref="A1:G26"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="G15" activeCellId="0" sqref="A12:G15"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="G37" activeCellId="0" sqref="A24:G37"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -663,39 +585,39 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F1" t="s" s="0">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G1" t="s" s="0">
-        <x:v>8</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E2" s="1" t="b">
         <x:v>0</x:v>
@@ -707,16 +629,16 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E3" s="1" t="b">
         <x:v>0</x:v>
@@ -728,16 +650,16 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E4" s="1" t="b">
         <x:v>0</x:v>
@@ -749,16 +671,16 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="1" t="b">
         <x:v>0</x:v>
@@ -770,16 +692,16 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E6" s="1" t="b">
         <x:v>0</x:v>
@@ -791,16 +713,16 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E7" s="1" t="b">
         <x:v>0</x:v>
@@ -812,16 +734,16 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" t="s" s="0">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B8" t="s" s="0">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C8" t="s" s="0">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D8" t="s" s="0">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E8" s="1" t="b">
         <x:v>0</x:v>
@@ -833,16 +755,16 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E9" s="1" t="b">
         <x:v>0</x:v>
@@ -854,13 +776,13 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" t="s" s="0">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B10" t="s" s="0">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C10" t="s" s="0">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D10" t="s" s="0">
         <x:v>19</x:v>
@@ -875,278 +797,370 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" t="s" s="0">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B11" t="s" s="0">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C11" t="s" s="0">
-        <x:v>31</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D11" t="s" s="0">
-        <x:v>25</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E11" t="b" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F11" t="s" s="0">
-        <x:v>34</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G11" t="b" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="12" spans="1:7">
       <x:c r="A12" t="s" s="0">
-        <x:v>39</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B12" t="s" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C12" t="s" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D12" t="s" s="0">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C12" t="s" s="0">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D12" t="s" s="0">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="E12" t="b" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F12" t="s" s="0">
-        <x:v>43</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G12" t="b" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="13" spans="1:7">
       <x:c r="A13" t="s" s="0">
-        <x:v>44</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B13" t="s" s="0">
-        <x:v>45</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C13" t="s" s="0">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D13" t="s" s="0">
-        <x:v>47</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E13" t="b" s="0">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F13" t="s" s="0">
-        <x:v>49</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G13" t="b" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="14" spans="1:7">
       <x:c r="A14" t="s" s="0">
-        <x:v>50</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B14" t="s" s="0">
-        <x:v>51</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C14" t="s" s="0">
         <x:v>52</x:v>
       </x:c>
       <x:c r="D14" t="s" s="0">
-        <x:v>53</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E14" t="b" s="0">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F14" t="s" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G14" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" t="s" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B15" t="s" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C15" t="s" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D15" t="s" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E15" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F15" t="s" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G15" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" t="s" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B16" t="s" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C16" t="s" s="0">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G14" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15">
-      <x:c r="A15" t="s" s="0">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B15" t="s" s="0">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C15" t="s" s="0">
+      <x:c r="D16" t="s" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E16" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F16" t="s" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G16" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" t="s" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B17" t="s" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C17" t="s" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D17" t="s" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E17" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F17" t="s" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G17" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" t="s" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B18" t="s" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C18" t="s" s="0">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D18" t="s" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E18" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F18" t="s" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G18" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" t="s" s="0">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B19" t="s" s="0">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C19" t="s" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D19" t="s" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E19" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F19" t="s" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G19" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" t="s" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B20" t="s" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C20" t="s" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D20" t="s" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E20" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F20" t="s" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G20" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" t="s" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B21" t="s" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C21" t="s" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D21" t="s" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E21" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F21" t="s" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G21" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" t="s" s="0">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B22" t="s" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C22" t="s" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D22" t="s" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E22" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F22" t="s" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G22" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D15" t="s" s="0">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E15" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F15" t="s" s="0">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="G15" t="b" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16">
-      <x:c r="A16" t="s" s="0">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B16" t="s" s="0">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C16" t="s" s="0">
+      <x:c r="D23" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F23" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D16" t="s" s="0">
+      <x:c r="G23" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" t="s" s="0">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="E16" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F16" t="s" s="0">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G16" t="b" s="0">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17">
-      <x:c r="A17" t="s" s="0">
+      <x:c r="B24" t="s" s="0">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C24" t="s" s="0">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D24" t="s" s="0">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E24" t="b" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F24" t="s" s="0">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G24" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="A25" t="s" s="0">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B17" t="s" s="0">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C17" t="s" s="0">
+      <x:c r="B25" t="s" s="0">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C25" t="s" s="0">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D25" t="s" s="0">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E25" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F25" t="s" s="0">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G25" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" t="s" s="0">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="D17" t="s" s="0">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E17" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F17" t="s" s="0">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G17" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18">
-      <x:c r="A18" t="s" s="0">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B18" t="s" s="0">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C18" t="s" s="0">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D18" t="s" s="0">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E18" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F18" t="s" s="0">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G18" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19">
-      <x:c r="A19" t="s" s="0">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B19" t="s" s="0">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C19" t="s" s="0">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D19" t="s" s="0">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E19" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F19" t="s" s="0">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G19" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20">
-      <x:c r="A20" t="s" s="0">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B20" t="s" s="0">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C20" t="s" s="0">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D20" t="s" s="0">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E20" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F20" t="s" s="0">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="G20" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21">
-      <x:c r="A21" t="s" s="0">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B21" t="s" s="0">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C21" t="s" s="0">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D21" t="s" s="0">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E21" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F21" t="s" s="0">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G21" t="b" s="0">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22">
-      <x:c r="A22" t="s" s="0">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B22" t="s" s="0">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C22" t="s" s="0">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D22" t="s" s="0">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E22" t="b" s="0">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F22" t="s" s="0">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="G22" t="b" s="0">
-        <x:v>1</x:v>
+      <x:c r="B26" t="s" s="0">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C26" t="s" s="0">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D26" t="s" s="0">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E26" t="b" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F26" t="s" s="0">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G26" t="b" s="0">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
